--- a/experiment/nonconvex/MorganPatrone2006a/compare/Alpha-Zero/MorganPatrone2006a_Alpha-Zero.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/compare/Alpha-Zero/MorganPatrone2006a_Alpha-Zero.xlsx
@@ -473,13 +473,13 @@
         <v>3.268499994867961</v>
       </c>
       <c r="E2">
-        <v>0.0195034</v>
+        <v>0.0319531</v>
       </c>
       <c r="F2">
-        <v>0.0351863</v>
+        <v>0.097969</v>
       </c>
       <c r="G2">
-        <v>0.02195064625550661</v>
+        <v>0.044472833928571424</v>
       </c>
       <c r="H2">
         <v>6000</v>
